--- a/biology/Botanique/Liste_des_écoles_d'architecture_et_de_paysage/Liste_des_écoles_d'architecture_et_de_paysage.xlsx
+++ b/biology/Botanique/Liste_des_écoles_d'architecture_et_de_paysage/Liste_des_écoles_d'architecture_et_de_paysage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste répertorie les écoles d'architectures et de paysage à travers le monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Institut supérieur Agronomique de Chott-mariem (ISA Chott-mariem) à Sousse ,Tunisie (License ,ingénieur,Master professionnel)  [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Institut supérieur Agronomique de Chott-mariem (ISA Chott-mariem) à Sousse ,Tunisie (License ,ingénieur,Master professionnel)  </t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hochschule Weihenstephan-Triesdorf (HSWT) à Freising en Bavière</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Australie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adelaide University School of Architecture Landscape Architecture and Urban Design
 RMIT School of Architecture and Design</t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Université de Liège (Gembloux Agro-Bio-Tech), Licence et Master
 Université Libre de Bruxelles (Faculté de la Cambre-Horta)  Licence et Master en partenariat avec l'ULG
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>John H. Daniels Faculty of Architecture, Landscape and Design</t>
         </is>
@@ -646,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,7 +686,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cal Poly Pomona College of Environmental Design
 Cal Poly College of Architecture and Environmental Design (San Luis Obispo)
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Public
 École nationale supérieure du paysage (ENSP) à Versailles
@@ -718,7 +744,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -736,7 +762,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Edinburgh School of Architecture and Landscape Architecture</t>
         </is>
@@ -748,7 +776,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9coles_d%27architecture_et_de_paysage</t>
+          <t>Liste_des_écoles_d'architecture_et_de_paysage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +794,9 @@
           <t>En Suisse</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">HEPIA / École d'ingénieurs de Lullier à Genève
 Institut d'architecture de l'université de Genève
